--- a/COVID-19_NC_Case_Growth.xlsx
+++ b/COVID-19_NC_Case_Growth.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moglesby/Google Drive/MBO Shared/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moglesby/Google Drive/MBO Shared/COVID-19_NC_Case_Growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21031259-0826-BA46-B9ED-768A9B258A08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213A933-F9C2-974B-9DF7-A7712AD0F1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="33600" windowHeight="19240" xr2:uid="{A0B0C22F-6821-2B40-B30A-92DADE45F93A}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19240" xr2:uid="{A0B0C22F-6821-2B40-B30A-92DADE45F93A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Date</t>
   </si>
@@ -53,12 +53,6 @@
     <t>Day</t>
   </si>
   <si>
-    <t>NC 7 day lag</t>
-  </si>
-  <si>
-    <t>NC 14 day lag</t>
-  </si>
-  <si>
     <t>NY</t>
   </si>
   <si>
@@ -72,6 +66,9 @@
   </si>
   <si>
     <t>https://www.ncdhhs.gov/covid-19-case-count-nc</t>
+  </si>
+  <si>
+    <t>NC 11 day lag</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +997,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 14 day lag</a:t>
+              <a:t> 11 day lag</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1046,11 +1043,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NC 14 day lag</c:v>
+                  <c:v>NC 11 day lag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1081,7 +1078,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1138,7 +1135,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1175,7 +1172,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1210,7 +1207,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1267,7 +1264,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1571,7 +1568,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> 14 day lag (log scale)</a:t>
+              <a:t> 11 day lag (log scale)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1617,11 +1614,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NC 14 day lag</c:v>
+                  <c:v>NC 11 day lag</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1652,7 +1649,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1709,7 +1706,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$G$2:$G$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1746,7 +1743,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1781,7 +1778,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1838,7 +1835,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$17</c:f>
+              <c:f>Sheet1!$H$2:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4280,13 +4277,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -4316,13 +4313,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
@@ -4354,13 +4351,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -4390,13 +4387,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>819150</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
@@ -4726,15 +4723,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1F3348-3F65-1E4F-A799-445EBB0DDEF9}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T31" sqref="T31"/>
+    <sheetView tabSelected="1" topLeftCell="K18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4742,516 +4739,461 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>43894</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <f>B9</f>
-        <v>7</v>
+      <c r="E2">
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
         <f>B16</f>
         <v>63</v>
       </c>
-      <c r="I2">
-        <f>F5</f>
+      <c r="H2">
+        <f>E5</f>
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>43895</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3">
-        <f t="shared" ref="C3:C14" si="0">B10</f>
-        <v>12</v>
+      <c r="E3">
+        <v>22</v>
       </c>
       <c r="F3">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <f>B17</f>
+        <v>97</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H7" si="1">B17</f>
-        <v>97</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I17" si="2">F6</f>
+        <f t="shared" ref="H3:H17" si="0">E6</f>
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>43896</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="E4">
+        <v>33</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <f>B18</f>
+        <v>137</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="1"/>
-        <v>137</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="2"/>
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>43897</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
+        <v>341</v>
+      </c>
+      <c r="E5">
+        <v>76</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <f>B19</f>
+        <v>184</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="E5">
-        <v>341</v>
-      </c>
-      <c r="F5">
-        <v>76</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <f t="shared" si="1"/>
-        <v>184</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="2"/>
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43898</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
+        <v>417</v>
+      </c>
+      <c r="E6">
+        <v>105</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <f>B20</f>
+        <v>255</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="E6">
-        <v>417</v>
-      </c>
-      <c r="F6">
-        <v>105</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
-        <v>255</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="2"/>
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>43899</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="D7">
+        <v>584</v>
+      </c>
+      <c r="E7">
+        <v>142</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <f>B21</f>
+        <v>297</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E7">
-        <v>584</v>
-      </c>
-      <c r="F7">
-        <v>142</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="1"/>
-        <v>297</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="2"/>
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>43900</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="D8">
+        <v>778</v>
+      </c>
+      <c r="E8">
+        <v>173</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>778</v>
-      </c>
-      <c r="F8">
-        <v>173</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="2"/>
         <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>43901</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="D9">
+        <v>1053</v>
+      </c>
+      <c r="E9">
+        <v>216</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="E9">
-        <v>1053</v>
-      </c>
-      <c r="F9">
-        <v>216</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="2"/>
         <v>524</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>43902</v>
       </c>
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10">
+      <c r="D10">
+        <v>1315</v>
+      </c>
+      <c r="E10">
+        <v>216</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="E10">
-        <v>1315</v>
-      </c>
-      <c r="F10">
-        <v>216</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="2"/>
         <v>729</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>43903</v>
       </c>
       <c r="B11">
         <v>15</v>
       </c>
-      <c r="C11">
+      <c r="D11">
+        <v>1922</v>
+      </c>
+      <c r="E11">
+        <v>421</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="E11">
-        <v>1922</v>
-      </c>
-      <c r="F11">
-        <v>421</v>
-      </c>
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="2"/>
         <v>950</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>43904</v>
       </c>
       <c r="B12">
         <v>23</v>
       </c>
-      <c r="C12">
+      <c r="D12">
+        <v>1450</v>
+      </c>
+      <c r="E12">
+        <v>524</v>
+      </c>
+      <c r="F12">
+        <v>11</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>184</v>
-      </c>
-      <c r="E12">
-        <v>1450</v>
-      </c>
-      <c r="F12">
-        <v>524</v>
-      </c>
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="2"/>
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>43905</v>
       </c>
       <c r="B13">
         <v>32</v>
       </c>
-      <c r="C13">
+      <c r="D13">
+        <v>3173</v>
+      </c>
+      <c r="E13">
+        <v>729</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="0"/>
-        <v>255</v>
-      </c>
-      <c r="E13">
-        <v>3173</v>
-      </c>
-      <c r="F13">
-        <v>729</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="2"/>
         <v>2382</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>43906</v>
       </c>
       <c r="B14">
         <v>33</v>
       </c>
-      <c r="C14">
+      <c r="D14">
+        <v>4019</v>
+      </c>
+      <c r="E14">
+        <v>950</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="E14">
-        <v>4019</v>
-      </c>
-      <c r="F14">
-        <v>950</v>
-      </c>
-      <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="2"/>
         <v>4152</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>43907</v>
       </c>
       <c r="B15">
         <v>40</v>
       </c>
+      <c r="D15">
+        <v>5723</v>
+      </c>
       <c r="E15">
-        <v>5723</v>
+        <v>1700</v>
       </c>
       <c r="F15">
-        <v>1700</v>
-      </c>
-      <c r="G15">
         <v>14</v>
       </c>
-      <c r="I15">
-        <f t="shared" si="2"/>
+      <c r="H15">
+        <f t="shared" si="0"/>
         <v>7102</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>43908</v>
       </c>
       <c r="B16">
         <v>63</v>
       </c>
+      <c r="D16">
+        <v>7731</v>
+      </c>
       <c r="E16">
-        <v>7731</v>
+        <v>2382</v>
       </c>
       <c r="F16">
-        <v>2382</v>
-      </c>
-      <c r="G16">
         <v>15</v>
       </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
+      <c r="H16">
+        <f t="shared" si="0"/>
         <v>10356</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43909</v>
       </c>
       <c r="B17">
         <v>97</v>
       </c>
+      <c r="D17">
+        <v>11723</v>
+      </c>
       <c r="E17">
-        <v>11723</v>
+        <v>4152</v>
       </c>
       <c r="F17">
-        <v>4152</v>
-      </c>
-      <c r="G17">
         <v>16</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="2"/>
+      <c r="H17">
+        <f t="shared" si="0"/>
         <v>15168</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43910</v>
       </c>
       <c r="B18">
         <v>137</v>
       </c>
+      <c r="D18">
+        <v>17038</v>
+      </c>
       <c r="E18">
-        <v>17038</v>
+        <v>7102</v>
       </c>
       <c r="F18">
-        <v>7102</v>
-      </c>
-      <c r="G18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43911</v>
       </c>
       <c r="B19">
         <v>184</v>
       </c>
+      <c r="D19">
+        <v>23203</v>
+      </c>
       <c r="E19">
-        <v>23203</v>
+        <v>10356</v>
       </c>
       <c r="F19">
-        <v>10356</v>
-      </c>
-      <c r="G19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43912</v>
       </c>
       <c r="B20">
         <v>255</v>
       </c>
+      <c r="C20">
+        <v>40</v>
+      </c>
       <c r="D20">
-        <v>40</v>
+        <v>31888</v>
       </c>
       <c r="E20">
-        <v>31888</v>
+        <v>15168</v>
       </c>
       <c r="F20">
-        <v>15168</v>
-      </c>
-      <c r="G20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43913</v>
       </c>
       <c r="B21">
         <v>297</v>
       </c>
-      <c r="D21">
+      <c r="C21">
         <v>46</v>
       </c>
-      <c r="G21">
+      <c r="F21">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/COVID-19_NC_Case_Growth.xlsx
+++ b/COVID-19_NC_Case_Growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moglesby/Google Drive/MBO Shared/COVID-19_NC_Case_Growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3213A933-F9C2-974B-9DF7-A7712AD0F1BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6CFC0-A2F9-9745-A4DA-E6C8D9C90CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19240" xr2:uid="{A0B0C22F-6821-2B40-B30A-92DADE45F93A}"/>
   </bookViews>
@@ -214,10 +214,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$200</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -277,16 +277,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$200</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="199"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -346,6 +349,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -643,10 +649,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$201</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -706,16 +712,19 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43914</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$201</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="200"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -775,6 +784,9 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1078,10 +1090,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1129,16 +1141,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1156,6 +1171,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1207,10 +1225,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1258,16 +1276,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$H$2:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1315,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1649,10 +1673,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1700,16 +1724,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$17</c:f>
+              <c:f>Sheet1!$G$2:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1727,6 +1754,9 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,10 +1808,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$17</c:f>
+              <c:f>Sheet1!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1829,16 +1859,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$17</c:f>
+              <c:f>Sheet1!$H$2:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1886,6 +1919,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>15168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4723,10 +4759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1F3348-3F65-1E4F-A799-445EBB0DDEF9}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4771,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f>B16</f>
+        <f t="shared" ref="G2:G8" si="0">B16</f>
         <v>63</v>
       </c>
       <c r="H2">
@@ -4793,11 +4829,11 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <f>B17</f>
+        <f t="shared" si="0"/>
         <v>97</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H17" si="0">E6</f>
+        <f t="shared" ref="H3:H18" si="1">E6</f>
         <v>105</v>
       </c>
     </row>
@@ -4815,11 +4851,11 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <f>B18</f>
+        <f t="shared" si="0"/>
         <v>137</v>
       </c>
       <c r="H4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
     </row>
@@ -4840,11 +4876,11 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <f>B19</f>
+        <f t="shared" si="0"/>
         <v>184</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>173</v>
       </c>
     </row>
@@ -4865,11 +4901,11 @@
         <v>5</v>
       </c>
       <c r="G6">
-        <f>B20</f>
+        <f t="shared" si="0"/>
         <v>255</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
@@ -4890,11 +4926,11 @@
         <v>6</v>
       </c>
       <c r="G7">
-        <f>B21</f>
+        <f t="shared" si="0"/>
         <v>297</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>216</v>
       </c>
     </row>
@@ -4914,8 +4950,12 @@
       <c r="F8">
         <v>7</v>
       </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>421</v>
       </c>
     </row>
@@ -4936,7 +4976,7 @@
         <v>8</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524</v>
       </c>
     </row>
@@ -4957,7 +4997,7 @@
         <v>9</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>729</v>
       </c>
     </row>
@@ -4978,7 +5018,7 @@
         <v>10</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>950</v>
       </c>
     </row>
@@ -4999,7 +5039,7 @@
         <v>11</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1700</v>
       </c>
     </row>
@@ -5020,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2382</v>
       </c>
     </row>
@@ -5041,7 +5081,7 @@
         <v>13</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4152</v>
       </c>
     </row>
@@ -5062,7 +5102,7 @@
         <v>14</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7102</v>
       </c>
     </row>
@@ -5083,7 +5123,7 @@
         <v>15</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10356</v>
       </c>
     </row>
@@ -5104,7 +5144,7 @@
         <v>16</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15168</v>
       </c>
     </row>
@@ -5124,6 +5164,10 @@
       <c r="F18">
         <v>17</v>
       </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>20875</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
@@ -5138,9 +5182,6 @@
       <c r="E19">
         <v>10356</v>
       </c>
-      <c r="F19">
-        <v>18</v>
-      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -5158,9 +5199,6 @@
       <c r="E20">
         <v>15168</v>
       </c>
-      <c r="F20">
-        <v>19</v>
-      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -5172,27 +5210,41 @@
       <c r="C21">
         <v>46</v>
       </c>
-      <c r="F21">
-        <v>20</v>
+      <c r="D21">
+        <v>42164</v>
+      </c>
+      <c r="E21">
+        <v>20875</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B22">
+        <v>398</v>
+      </c>
+      <c r="C22">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J48" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="51" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="52" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J52" t="s">
         <v>10</v>
       </c>
     </row>

--- a/COVID-19_NC_Case_Growth.xlsx
+++ b/COVID-19_NC_Case_Growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moglesby/Google Drive/MBO Shared/COVID-19_NC_Case_Growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A6CFC0-A2F9-9745-A4DA-E6C8D9C90CB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4243BD7-E640-7347-BAFA-D2B7717BEAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19240" xr2:uid="{A0B0C22F-6821-2B40-B30A-92DADE45F93A}"/>
   </bookViews>
@@ -281,6 +281,9 @@
                 <c:pt idx="20">
                   <c:v>43914</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>43915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -352,6 +355,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -716,6 +722,9 @@
                 <c:pt idx="20">
                   <c:v>43914</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>43915</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -787,6 +796,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1051,8 +1063,179 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6917-6740-A2AF-4C409C30A5FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$1</c:f>
@@ -1090,10 +1273,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$18</c:f>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1144,16 +1327,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$18</c:f>
+              <c:f>Sheet1!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1174,6 +1360,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1182,171 +1371,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-6917-6740-A2AF-4C409C30A5FB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2382</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10356</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15168</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-6917-6740-A2AF-4C409C30A5FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1634,8 +1658,179 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NY</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>729</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2382</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4152</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10356</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15168</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25665</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CE1-2246-B54E-C1F4AE1AC3AA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$G$1</c:f>
@@ -1673,10 +1868,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$18</c:f>
+              <c:f>Sheet1!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1727,16 +1922,19 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$18</c:f>
+              <c:f>Sheet1!$G$2:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1757,6 +1955,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>504</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1765,171 +1966,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7CE1-2246-B54E-C1F4AE1AC3AA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>NY</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$H$2:$H$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
-                <c:pt idx="0">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>421</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>729</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>950</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1700</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2382</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4152</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7102</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10356</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15168</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>20875</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7CE1-2246-B54E-C1F4AE1AC3AA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4762,7 +4798,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4807,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G8" si="0">B16</f>
+        <f t="shared" ref="G2:G9" si="0">B16</f>
         <v>63</v>
       </c>
       <c r="H2">
@@ -4833,7 +4869,7 @@
         <v>97</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H18" si="1">E6</f>
+        <f t="shared" ref="H3:H19" si="1">E6</f>
         <v>105</v>
       </c>
     </row>
@@ -4975,6 +5011,10 @@
       <c r="F9">
         <v>8</v>
       </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>504</v>
+      </c>
       <c r="H9">
         <f t="shared" si="1"/>
         <v>524</v>
@@ -5182,6 +5222,13 @@
       <c r="E19">
         <v>10356</v>
       </c>
+      <c r="F19">
+        <v>18</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>25665</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
@@ -5226,6 +5273,23 @@
       </c>
       <c r="C22">
         <v>54</v>
+      </c>
+      <c r="D22">
+        <v>51970</v>
+      </c>
+      <c r="E22">
+        <v>25665</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B23">
+        <v>504</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.2">

--- a/COVID-19_NC_Case_Growth.xlsx
+++ b/COVID-19_NC_Case_Growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moglesby/Google Drive/MBO Shared/COVID-19_NC_Case_Growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4243BD7-E640-7347-BAFA-D2B7717BEAA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A56F0F-6AEC-1545-A107-343A1E4EE821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19240" xr2:uid="{A0B0C22F-6821-2B40-B30A-92DADE45F93A}"/>
   </bookViews>
@@ -284,6 +284,9 @@
                 <c:pt idx="21">
                   <c:v>43915</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -358,6 +361,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -725,6 +731,9 @@
                 <c:pt idx="21">
                   <c:v>43915</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>43916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -799,6 +808,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1102,10 +1114,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1159,16 +1171,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$19</c:f>
+              <c:f>Sheet1!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1222,6 +1237,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>25665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1273,10 +1291,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1330,16 +1348,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$19</c:f>
+              <c:f>Sheet1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1363,6 +1384,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1697,10 +1721,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1754,16 +1778,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$19</c:f>
+              <c:f>Sheet1!$H$2:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1817,6 +1844,9 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>25665</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,10 +1898,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$19</c:f>
+              <c:f>Sheet1!$F$2:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1925,16 +1955,19 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$19</c:f>
+              <c:f>Sheet1!$G$2:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1958,6 +1991,9 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4798,7 +4834,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4843,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G9" si="0">B16</f>
+        <f t="shared" ref="G2:G10" si="0">B16</f>
         <v>63</v>
       </c>
       <c r="H2">
@@ -4869,7 +4905,7 @@
         <v>97</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H19" si="1">E6</f>
+        <f t="shared" ref="H3:H20" si="1">E6</f>
         <v>105</v>
       </c>
     </row>
@@ -5036,6 +5072,10 @@
       <c r="F10">
         <v>9</v>
       </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>636</v>
+      </c>
       <c r="H10">
         <f t="shared" si="1"/>
         <v>729</v>
@@ -5246,6 +5286,13 @@
       <c r="E20">
         <v>15168</v>
       </c>
+      <c r="F20">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>30811</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
@@ -5290,6 +5337,23 @@
       </c>
       <c r="C23">
         <v>67</v>
+      </c>
+      <c r="D23">
+        <v>63675</v>
+      </c>
+      <c r="E23">
+        <v>30811</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B24">
+        <v>636</v>
+      </c>
+      <c r="C24">
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.2">

--- a/COVID-19_NC_Case_Growth.xlsx
+++ b/COVID-19_NC_Case_Growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moglesby/Google Drive/MBO Shared/COVID-19_NC_Case_Growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A56F0F-6AEC-1545-A107-343A1E4EE821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF9B40-109A-5F4B-8440-55589F9EF76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19240" xr2:uid="{A0B0C22F-6821-2B40-B30A-92DADE45F93A}"/>
   </bookViews>
@@ -287,6 +287,9 @@
                 <c:pt idx="22">
                   <c:v>43916</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -364,6 +367,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -734,6 +740,9 @@
                 <c:pt idx="22">
                   <c:v>43916</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>43917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -811,6 +820,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,10 +1126,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:f>Sheet1!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1174,16 +1186,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:f>Sheet1!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1240,6 +1258,12 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>30811</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37258</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,10 +1315,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:f>Sheet1!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1351,16 +1375,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$20</c:f>
+              <c:f>Sheet1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1387,6 +1417,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,10 +1754,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:f>Sheet1!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1781,16 +1814,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$20</c:f>
+              <c:f>Sheet1!$H$2:$H$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1847,6 +1886,12 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>30811</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37258</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44635</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,10 +1943,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$20</c:f>
+              <c:f>Sheet1!$F$2:$F$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1958,16 +2003,22 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$20</c:f>
+              <c:f>Sheet1!$G$2:$G$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1994,6 +2045,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>763</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4834,7 +4888,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="H21" sqref="H21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4879,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G10" si="0">B16</f>
+        <f t="shared" ref="G2:G11" si="0">B16</f>
         <v>63</v>
       </c>
       <c r="H2">
@@ -4905,7 +4959,7 @@
         <v>97</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H20" si="1">E6</f>
+        <f t="shared" ref="H3:H22" si="1">E6</f>
         <v>105</v>
       </c>
     </row>
@@ -5097,6 +5151,10 @@
       <c r="F11">
         <v>10</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>763</v>
+      </c>
       <c r="H11">
         <f t="shared" si="1"/>
         <v>950</v>
@@ -5110,7 +5168,7 @@
         <v>23</v>
       </c>
       <c r="D12">
-        <v>1450</v>
+        <v>2450</v>
       </c>
       <c r="E12">
         <v>524</v>
@@ -5194,7 +5252,7 @@
         <v>63</v>
       </c>
       <c r="D16">
-        <v>7731</v>
+        <v>7730</v>
       </c>
       <c r="E16">
         <v>2382</v>
@@ -5215,7 +5273,7 @@
         <v>97</v>
       </c>
       <c r="D17">
-        <v>11723</v>
+        <v>11719</v>
       </c>
       <c r="E17">
         <v>4152</v>
@@ -5236,7 +5294,7 @@
         <v>137</v>
       </c>
       <c r="D18">
-        <v>17038</v>
+        <v>17033</v>
       </c>
       <c r="E18">
         <v>7102</v>
@@ -5257,7 +5315,7 @@
         <v>184</v>
       </c>
       <c r="D19">
-        <v>23203</v>
+        <v>23197</v>
       </c>
       <c r="E19">
         <v>10356</v>
@@ -5281,7 +5339,7 @@
         <v>40</v>
       </c>
       <c r="D20">
-        <v>31888</v>
+        <v>31879</v>
       </c>
       <c r="E20">
         <v>15168</v>
@@ -5305,10 +5363,17 @@
         <v>46</v>
       </c>
       <c r="D21">
-        <v>42164</v>
+        <v>42152</v>
       </c>
       <c r="E21">
         <v>20875</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>37258</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -5322,10 +5387,17 @@
         <v>54</v>
       </c>
       <c r="D22">
-        <v>51970</v>
+        <v>51954</v>
       </c>
       <c r="E22">
         <v>25665</v>
+      </c>
+      <c r="F22">
+        <v>21</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>44635</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -5339,7 +5411,7 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>63675</v>
+        <v>63928</v>
       </c>
       <c r="E23">
         <v>30811</v>
@@ -5354,6 +5426,29 @@
       </c>
       <c r="C24">
         <v>83</v>
+      </c>
+      <c r="D24">
+        <v>80735</v>
+      </c>
+      <c r="E24">
+        <v>37258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B25">
+        <v>763</v>
+      </c>
+      <c r="C25">
+        <v>104</v>
+      </c>
+      <c r="D25">
+        <v>99447</v>
+      </c>
+      <c r="E25">
+        <v>44635</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.2">

--- a/COVID-19_NC_Case_Growth.xlsx
+++ b/COVID-19_NC_Case_Growth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moglesby/Google Drive/MBO Shared/COVID-19_NC_Case_Growth/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CF9B40-109A-5F4B-8440-55589F9EF76B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44553F82-9CF9-DC45-A6A8-8784ECDD0CFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="33600" windowHeight="19240" xr2:uid="{A0B0C22F-6821-2B40-B30A-92DADE45F93A}"/>
   </bookViews>
@@ -290,6 +290,15 @@
                 <c:pt idx="23">
                   <c:v>43917</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -370,6 +379,15 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -743,6 +761,15 @@
                 <c:pt idx="23">
                   <c:v>43917</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43920</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -823,6 +850,15 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,10 +1162,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$22</c:f>
+              <c:f>Sheet1!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1192,16 +1228,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$22</c:f>
+              <c:f>Sheet1!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1264,6 +1306,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1315,10 +1363,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$22</c:f>
+              <c:f>Sheet1!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1381,16 +1429,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$22</c:f>
+              <c:f>Sheet1!$G$2:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -1420,6 +1474,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,10 +1817,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$22</c:f>
+              <c:f>Sheet1!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1820,16 +1883,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$22</c:f>
+              <c:f>Sheet1!$H$2:$H$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>76</c:v>
                 </c:pt>
@@ -1892,6 +1961,12 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>44635</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52318</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>59513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1943,10 +2018,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$22</c:f>
+              <c:f>Sheet1!$F$2:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -2009,16 +2084,22 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$22</c:f>
+              <c:f>Sheet1!$G$2:$G$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>63</c:v>
                 </c:pt>
@@ -2048,6 +2129,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>935</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4887,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB1F3348-3F65-1E4F-A799-445EBB0DDEF9}">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21:H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4933,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G11" si="0">B16</f>
+        <f t="shared" ref="G2:G14" si="0">B16</f>
         <v>63</v>
       </c>
       <c r="H2">
@@ -4959,7 +5049,7 @@
         <v>97</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H22" si="1">E6</f>
+        <f t="shared" ref="H3:H24" si="1">E6</f>
         <v>105</v>
       </c>
     </row>
@@ -5176,6 +5266,10 @@
       <c r="F12">
         <v>11</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>935</v>
+      </c>
       <c r="H12">
         <f t="shared" si="1"/>
         <v>1700</v>
@@ -5197,6 +5291,10 @@
       <c r="F13">
         <v>12</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
       <c r="H13">
         <f t="shared" si="1"/>
         <v>2382</v>
@@ -5218,6 +5316,10 @@
       <c r="F14">
         <v>13</v>
       </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>1167</v>
+      </c>
       <c r="H14">
         <f t="shared" si="1"/>
         <v>4152</v>
@@ -5293,6 +5395,9 @@
       <c r="B18">
         <v>137</v>
       </c>
+      <c r="C18">
+        <v>32</v>
+      </c>
       <c r="D18">
         <v>17033</v>
       </c>
@@ -5314,6 +5419,9 @@
       <c r="B19">
         <v>184</v>
       </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
       <c r="D19">
         <v>23197</v>
       </c>
@@ -5336,7 +5444,7 @@
         <v>255</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>31879</v>
@@ -5360,7 +5468,7 @@
         <v>297</v>
       </c>
       <c r="C21">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="D21">
         <v>42152</v>
@@ -5384,7 +5492,7 @@
         <v>398</v>
       </c>
       <c r="C22">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>51954</v>
@@ -5408,13 +5516,20 @@
         <v>504</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>63928</v>
       </c>
       <c r="E23">
         <v>30811</v>
+      </c>
+      <c r="F23">
+        <v>22</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>52318</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -5425,13 +5540,20 @@
         <v>636</v>
       </c>
       <c r="C24">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D24">
         <v>80735</v>
       </c>
       <c r="E24">
         <v>37258</v>
+      </c>
+      <c r="F24">
+        <v>23</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>59513</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -5442,13 +5564,58 @@
         <v>763</v>
       </c>
       <c r="C25">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D25">
-        <v>99447</v>
+        <v>99413</v>
       </c>
       <c r="E25">
         <v>44635</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B26">
+        <v>935</v>
+      </c>
+      <c r="C26">
+        <v>140</v>
+      </c>
+      <c r="D26">
+        <v>118234</v>
+      </c>
+      <c r="E26">
+        <v>52318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B27">
+        <v>1040</v>
+      </c>
+      <c r="C27">
+        <v>155</v>
+      </c>
+      <c r="D27">
+        <v>139061</v>
+      </c>
+      <c r="E27">
+        <v>59513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B28">
+        <v>1167</v>
+      </c>
+      <c r="C28">
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="10:10" x14ac:dyDescent="0.2">
